--- a/VersionRecords/Version 5.0.2.3 20160927/版本Bug和特性计划及评审表v5.0.2.3_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.2.3 20160927/版本Bug和特性计划及评审表v5.0.2.3_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.2.3 20160927\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -248,12 +243,28 @@
     <t>李健</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>安娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安娜、吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -668,6 +679,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -687,7 +766,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1007,17 +1086,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="15" customWidth="1"/>
@@ -1042,7 +1121,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1133,17 +1212,25 @@
       <c r="K2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="L2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="11">
+        <v>42640</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1175,16 +1262,24 @@
       <c r="K3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="L3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="11">
+        <v>42640</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="7"/>
       <c r="B4" s="4"/>
       <c r="C4" s="7"/>
@@ -1205,7 +1300,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="16.5">
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
@@ -1226,7 +1321,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="16.5">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
@@ -1247,7 +1342,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="16.5">
       <c r="A7" s="7"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
@@ -1268,7 +1363,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="16.5">
       <c r="A8" s="7"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
@@ -1289,7 +1384,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -1310,7 +1405,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="16.5">
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
@@ -1331,7 +1426,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
@@ -1352,7 +1447,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
@@ -1373,7 +1468,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
@@ -1394,7 +1489,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -1415,7 +1510,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -1436,7 +1531,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -1457,7 +1552,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -1478,7 +1573,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1499,7 +1594,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1520,7 +1615,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -1541,7 +1636,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -1562,7 +1657,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -1583,7 +1678,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -1604,7 +1699,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -1625,7 +1720,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -1646,7 +1741,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -1667,7 +1762,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -1688,7 +1783,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -1709,7 +1804,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -1730,7 +1825,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -1751,7 +1846,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -1772,7 +1867,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -1793,7 +1888,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -1814,7 +1909,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -1835,7 +1930,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -1856,7 +1951,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -1877,7 +1972,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -1898,7 +1993,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -1919,7 +2014,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -1940,7 +2035,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -1961,7 +2056,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -1982,7 +2077,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2003,7 +2098,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2024,7 +2119,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2045,7 +2140,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2066,7 +2161,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2087,7 +2182,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2108,7 +2203,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2129,7 +2224,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2150,7 +2245,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2171,7 +2266,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2192,7 +2287,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2213,7 +2308,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2234,7 +2329,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2255,7 +2350,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2276,7 +2371,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2297,7 +2392,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2318,7 +2413,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2339,7 +2434,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -2360,7 +2455,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -2381,7 +2476,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -2402,7 +2497,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2423,7 +2518,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2444,7 +2539,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2465,7 +2560,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2486,7 +2581,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2507,7 +2602,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2528,7 +2623,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2549,7 +2644,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2570,7 +2665,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -2591,7 +2686,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -2612,7 +2707,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -2633,7 +2728,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -2654,7 +2749,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -2675,7 +2770,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -2696,7 +2791,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -2717,7 +2812,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -2738,7 +2833,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -2759,7 +2854,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -2780,7 +2875,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -2801,7 +2896,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -2822,7 +2917,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -2843,7 +2938,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -2864,7 +2959,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -2885,7 +2980,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -2906,7 +3001,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -2927,7 +3022,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -2948,7 +3043,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -2969,7 +3064,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -2990,7 +3085,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3011,7 +3106,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3032,7 +3127,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3053,7 +3148,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3074,7 +3169,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3095,7 +3190,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3116,7 +3211,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3137,7 +3232,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3158,7 +3253,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3179,7 +3274,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3200,7 +3295,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3221,7 +3316,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3242,7 +3337,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3263,7 +3358,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3284,7 +3379,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3305,7 +3400,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3326,7 +3421,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3347,7 +3442,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3368,7 +3463,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3389,7 +3484,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3407,7 +3502,7 @@
       <c r="O109" s="4"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3425,7 +3520,7 @@
       <c r="O110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3443,7 +3538,7 @@
       <c r="O111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3461,7 +3556,7 @@
       <c r="O112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3479,7 +3574,7 @@
       <c r="O113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3497,7 +3592,7 @@
       <c r="O114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3515,7 +3610,7 @@
       <c r="O115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3533,7 +3628,7 @@
       <c r="O116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3551,7 +3646,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3569,7 +3664,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -3587,7 +3682,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -3605,7 +3700,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -3623,7 +3718,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -3641,7 +3736,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -3659,7 +3754,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -3677,7 +3772,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -3695,7 +3790,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -3713,7 +3808,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -3731,7 +3826,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -3749,7 +3844,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -3767,7 +3862,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -3785,7 +3880,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -3803,7 +3898,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -3821,7 +3916,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -3839,7 +3934,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" ht="16.5">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -3857,7 +3952,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" ht="16.5">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -3875,7 +3970,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" ht="16.5">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -3893,7 +3988,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19" ht="16.5">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -3911,7 +4006,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" ht="16.5">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -3929,7 +4024,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" ht="16.5">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -3947,7 +4042,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" ht="16.5">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -3965,7 +4060,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -3983,7 +4078,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4001,7 +4096,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4027,21 +4122,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
@@ -4054,7 +4149,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="42"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4065,7 +4160,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4094,7 +4189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27" t="s">
         <v>36</v>
@@ -4109,7 +4204,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4120,7 +4215,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4131,7 +4226,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4142,7 +4237,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4153,7 +4248,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4164,7 +4259,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4175,7 +4270,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4186,7 +4281,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4197,7 +4292,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4208,7 +4303,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4237,14 +4332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4255,7 +4350,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4281,7 +4376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4291,7 +4386,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4301,7 +4396,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4311,7 +4406,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4321,7 +4416,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4331,7 +4426,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4341,7 +4436,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4351,7 +4446,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4361,7 +4456,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4371,7 +4466,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4381,7 +4476,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4391,7 +4486,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4401,7 +4496,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4411,7 +4506,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4421,7 +4516,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4431,7 +4526,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4441,7 +4536,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4451,7 +4546,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -4473,14 +4568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -5316,7 +5411,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -5333,7 +5428,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -5348,7 +5443,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5389,7 +5484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -5404,7 +5499,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -5419,7 +5514,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -5434,7 +5529,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -5449,7 +5544,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -5464,7 +5559,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -5479,7 +5574,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5494,7 +5589,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -5509,7 +5604,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -5543,14 +5638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -6386,7 +6481,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -6403,7 +6498,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -6418,7 +6513,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -6459,7 +6554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -6474,7 +6569,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6489,7 +6584,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -6504,7 +6599,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -6519,7 +6614,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -6534,7 +6629,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -6549,7 +6644,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6564,7 +6659,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -6579,7 +6674,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -6612,14 +6707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -7455,7 +7550,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -7472,7 +7567,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -7487,7 +7582,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7528,7 +7623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -7543,7 +7638,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -7558,7 +7653,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -7573,7 +7668,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -7588,7 +7683,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -7603,7 +7698,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7618,7 +7713,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -7633,7 +7728,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -7648,7 +7743,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
